--- a/examples/datasheet_examples_MC.xlsx
+++ b/examples/datasheet_examples_MC.xlsx
@@ -7831,7 +7831,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -9277,7 +9277,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="20.69921875" style="11"/>
     <col min="4" max="15" width="20.69921875" style="92"/>
@@ -9286,7 +9286,7 @@
     <col min="22" max="16384" width="20.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="14" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="14" customFormat="1" ht="23.4">
       <c r="A1" s="148" t="s">
         <v>1</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="288" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="288" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="9" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="9" customFormat="1" ht="128.1" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>29</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="92">
         <v>3139</v>
       </c>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="92">
         <v>233</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="21">
         <v>13224</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" s="92">
         <v>2846</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="92">
         <v>724</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="94">
         <v>685</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="92">
         <v>11916</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="11">
         <v>6141</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" s="11">
         <v>1470</v>
       </c>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>893</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>12594</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>1380</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="16.2" thickBot="1">
       <c r="A16">
         <v>1668</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="16.2" thickBot="1">
       <c r="A17" s="110">
         <v>434</v>
       </c>
@@ -10357,64 +10357,64 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21">
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="21:21">
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="21:21">
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="21:21">
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="21:21">
       <c r="U36" s="7"/>
     </row>
-    <row r="37" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="21:21">
       <c r="U37" s="7"/>
     </row>
   </sheetData>
@@ -10443,7 +10443,7 @@
       <selection pane="bottomRight" activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="15.69921875" style="11"/>
     <col min="3" max="3" width="22.59765625" style="11" customWidth="1"/>
@@ -10453,7 +10453,7 @@
     <col min="16" max="16384" width="15.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="9" customFormat="1" ht="38.4" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>12013</v>
       </c>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="36">
         <v>1242</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="36">
         <v>552</v>
       </c>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>2479</v>
       </c>
@@ -10687,7 +10687,7 @@
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="11">
         <v>2472</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="S6" s="95"/>
       <c r="T6" s="95"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="11">
         <v>11957</v>
       </c>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="36">
         <v>1898</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="11">
         <v>899</v>
       </c>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="11">
         <v>12532</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="11">
         <v>3101</v>
       </c>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="36">
         <v>13064</v>
       </c>
@@ -11015,7 +11015,7 @@
       <c r="R12" s="96"/>
       <c r="S12" s="96"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="11">
         <v>2658</v>
       </c>
@@ -11064,7 +11064,7 @@
       <c r="R13" s="96"/>
       <c r="S13" s="96"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="11">
         <v>5552</v>
       </c>
@@ -11113,7 +11113,7 @@
       <c r="R14" s="95"/>
       <c r="S14" s="95"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="11">
         <v>3118</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="R15" s="95"/>
       <c r="S15" s="95"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>34</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>566</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>623</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>496</v>
       </c>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>11928</v>
       </c>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>197</v>
       </c>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="11">
         <v>11913</v>
       </c>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="11">
         <v>876</v>
       </c>
@@ -11516,7 +11516,7 @@
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="11">
         <v>12849</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="11">
         <v>12682</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="11">
         <v>1247</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="11">
         <v>7992</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" s="11">
         <v>2592</v>
       </c>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" s="11">
         <v>12894</v>
       </c>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="11">
         <v>7804</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="11">
         <v>12428</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" s="11">
         <v>13202</v>
       </c>
@@ -11930,7 +11930,7 @@
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="11">
         <v>5748</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="11">
         <v>6073</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" s="11">
         <v>12322</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" s="11">
         <v>12627</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="11">
         <v>12545</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="11">
         <v>1398</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="11">
         <v>12202</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" s="11">
         <v>896</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" s="11">
         <v>155</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" s="11">
         <v>6054</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" s="11">
         <v>3134</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" s="11">
         <v>12114</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" s="11">
         <v>573</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" s="11">
         <v>12387</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47" s="11">
         <v>2387</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48" s="11">
         <v>637</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" s="11">
         <v>9496</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" s="11">
         <v>92</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" s="11">
         <v>3279</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" s="11">
         <v>30</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" s="11">
         <v>832</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" s="11">
         <v>1281</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" s="11">
         <v>12584</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" s="11">
         <v>554</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>11850</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58" s="11">
         <v>12138</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59" s="11">
         <v>12376</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60" s="11">
         <v>11979</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61" s="11">
         <v>439</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" s="11">
         <v>11937</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" s="11">
         <v>5963</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" s="11">
         <v>2381</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65" s="11">
         <v>5970</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66" s="11">
         <v>536</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67" s="11">
         <v>5992</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68" s="11">
         <v>474</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69" s="11">
         <v>11975</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70" s="11">
         <v>6010</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71" s="11">
         <v>6012</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72" s="11">
         <v>2872</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73" s="11">
         <v>162</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74" s="11">
         <v>712</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75" s="11">
         <v>6021</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76" s="11">
         <v>12412</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77" s="11">
         <v>524</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78" s="11">
         <v>828</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79" s="11">
         <v>967</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80" s="11">
         <v>1908</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81" s="11">
         <v>6072</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82" s="11">
         <v>423</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83" s="11">
         <v>1333</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84" s="11">
         <v>6128</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="A85" s="11">
         <v>2017</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15">
       <c r="A86" s="11">
         <v>187</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>437</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>603</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>639</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>3135</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15">
       <c r="A91" s="11">
         <v>719</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15">
       <c r="A92" s="11">
         <v>716</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15">
       <c r="A93" s="11">
         <v>266</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15">
       <c r="A94" s="11">
         <v>621</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="A95" s="11">
         <v>537</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="A96" s="11">
         <v>5631</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15">
       <c r="A97" s="11">
         <v>650</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15">
       <c r="A98" s="11">
         <v>75</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>1327</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>680</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>5647</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>427</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15">
       <c r="A103" s="11">
         <v>7916</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15">
       <c r="A104" s="11">
         <v>1017</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15">
       <c r="A105" s="11">
         <v>8303</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15">
       <c r="A106" s="11">
         <v>1397</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15">
       <c r="A107" s="11">
         <v>1782</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>11940</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15">
       <c r="A110" s="11">
         <v>5831</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15">
       <c r="A111" s="11">
         <v>5839</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15">
       <c r="A112" s="11">
         <v>11972</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15">
       <c r="A113" s="11">
         <v>1504</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15">
       <c r="A114" s="11">
         <v>5861</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15">
       <c r="A115" s="11">
         <v>1836</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15">
       <c r="A116" s="11">
         <v>512</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15">
       <c r="A117" s="11">
         <v>166</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15">
       <c r="A118" s="11">
         <v>754</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15">
       <c r="A119" s="11">
         <v>13049</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15">
       <c r="A120" s="11">
         <v>1068</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15">
       <c r="A121" s="11">
         <v>12206</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15">
       <c r="A122" s="11">
         <v>1118</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15">
       <c r="A123" s="11">
         <v>2855</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15">
       <c r="A124">
         <v>1117</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15">
       <c r="A125" s="11">
         <v>1452</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15">
       <c r="A126" s="11">
         <v>8098</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15">
       <c r="A127" s="11">
         <v>23</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15">
       <c r="A128" s="11">
         <v>1922</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15">
       <c r="A129" s="11">
         <v>243</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15">
       <c r="A130" s="11">
         <v>1341</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15">
       <c r="A131" s="11">
         <v>1216</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15">
       <c r="A132" s="11">
         <v>1899</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15">
       <c r="A133" s="11">
         <v>116</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15">
       <c r="A134" s="11">
         <v>1340</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15">
       <c r="A135" s="11">
         <v>6726</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15">
       <c r="A136" s="11">
         <v>12473</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15">
       <c r="A137" s="11">
         <v>1372</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15">
       <c r="A138" s="11">
         <v>12554</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15">
       <c r="A139" s="11">
         <v>12679</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15">
       <c r="A140" s="11">
         <v>6732</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15">
       <c r="A141" s="11">
         <v>139</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15">
       <c r="A142" s="11">
         <v>867</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15">
       <c r="A143" s="11">
         <v>1248</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15">
       <c r="A144" s="11">
         <v>551</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15">
       <c r="A145" s="11">
         <v>6185</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15">
       <c r="A146" s="11">
         <v>585</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15">
       <c r="A147" s="11">
         <v>6204</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15">
       <c r="A148" s="11">
         <v>12141</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15">
       <c r="A149">
         <v>6691</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15">
       <c r="A150" s="11">
         <v>493</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15">
       <c r="A151" s="11">
         <v>12288</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15">
       <c r="A152" s="11">
         <v>10697</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15">
       <c r="A153" s="11">
         <v>1938</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15">
       <c r="A154" s="11">
         <v>1768</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15">
       <c r="A155" s="11">
         <v>3125</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15">
       <c r="A156" s="11">
         <v>6257</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15">
       <c r="A157" s="11">
         <v>9086</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15">
       <c r="A158" s="11">
         <v>214</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15">
       <c r="A159" s="11">
         <v>713</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15">
       <c r="A160" s="11">
         <v>3438</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15">
       <c r="A161" s="11">
         <v>6268</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15">
       <c r="A162" s="11">
         <v>2841</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15">
       <c r="A163" s="11">
         <v>6271</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15">
       <c r="A164" s="11">
         <v>3136</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" s="11">
         <v>737</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15">
       <c r="A166" s="11">
         <v>633</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" s="11">
         <v>1912</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" s="21">
         <v>1112</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" s="11">
         <v>2616</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15">
       <c r="A170" s="11">
         <v>180</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15">
       <c r="A171" s="11">
         <v>12664</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="11">
         <v>615</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15">
       <c r="A173" s="11">
         <v>488</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15">
       <c r="A174" s="11">
         <v>1273</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15">
       <c r="A175" s="11">
         <v>9385</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15">
       <c r="A176" s="11">
         <v>455</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="14.4" customHeight="1">
       <c r="A177" s="11">
         <v>395</v>
       </c>
@@ -18550,7 +18550,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15">
       <c r="A178" s="11">
         <v>6278</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15">
       <c r="A179" s="11">
         <v>6690</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15">
       <c r="A180" s="11">
         <v>1418</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15">
       <c r="A181" s="11">
         <v>11804</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15">
       <c r="A182" s="11">
         <v>1105</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="1048563" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="1048563" spans="14:15">
       <c r="N1048563" s="92"/>
       <c r="O1048563" s="9"/>
     </row>
@@ -18796,7 +18796,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -18875,7 +18875,7 @@
     <col min="87" max="16384" width="13.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:86" ht="22.5" customHeight="1">
       <c r="A1" s="37"/>
       <c r="B1" s="44"/>
       <c r="C1" s="37" t="s">
@@ -18979,7 +18979,7 @@
       <c r="CG1" s="28"/>
       <c r="CH1" s="28"/>
     </row>
-    <row r="2" spans="1:86" s="29" customFormat="1" ht="241.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:86" s="29" customFormat="1" ht="241.8" customHeight="1">
       <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="34" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:86" s="34" customFormat="1" ht="55.2" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" ht="23.4" customHeight="1">
       <c r="A4" s="2">
         <v>3139</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" ht="19.8" customHeight="1">
       <c r="A5" s="5">
         <v>233</v>
       </c>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="CG5" s="1"/>
     </row>
-    <row r="6" spans="1:86" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" ht="38.4" customHeight="1">
       <c r="A6" s="2">
         <v>13224</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:86" ht="26.4" customHeight="1" thickBot="1">
       <c r="A7">
         <v>11916</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:86" s="112" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:86" s="112" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="110">
         <v>899</v>
       </c>
@@ -20398,7 +20398,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="126">
         <v>6073</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="10" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="126">
         <v>832</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="11" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="134">
         <v>893</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="12" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="134">
         <v>12594</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="13" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="126">
         <v>1380</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="14" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="126">
         <v>1668</v>
       </c>
@@ -20796,7 +20796,7 @@
       <c r="CD14" s="128"/>
       <c r="CE14" s="128"/>
     </row>
-    <row r="15" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="126">
         <v>116</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="16" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:86" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="134">
         <v>12473</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="17" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="110">
         <v>12554</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="18" spans="1:85" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:85" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="126">
         <v>12679</v>
       </c>
@@ -21210,7 +21210,7 @@
       <c r="CE18" s="2"/>
       <c r="CF18" s="1"/>
     </row>
-    <row r="19" spans="1:85" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:85" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="126">
         <v>6732</v>
       </c>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="CG19" s="99"/>
     </row>
-    <row r="20" spans="1:85" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:85" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="126">
         <v>434</v>
       </c>
@@ -21373,7 +21373,7 @@
       <c r="CE20" s="128"/>
       <c r="CG20" s="99"/>
     </row>
-    <row r="21" spans="1:85" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:85" s="127" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="98">
         <v>6691</v>
       </c>
@@ -21435,7 +21435,7 @@
       </c>
       <c r="CG21" s="99"/>
     </row>
-    <row r="22" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="110">
         <v>12288</v>
       </c>
@@ -21522,7 +21522,7 @@
       <c r="CE22" s="111"/>
       <c r="CG22" s="109"/>
     </row>
-    <row r="23" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="147">
         <v>1938</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="24" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="147">
         <v>1912</v>
       </c>
@@ -21792,7 +21792,7 @@
       </c>
       <c r="CG24" s="109"/>
     </row>
-    <row r="25" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="147">
         <v>1112</v>
       </c>
@@ -21875,7 +21875,7 @@
       <c r="CE25" s="111"/>
       <c r="CG25" s="109"/>
     </row>
-    <row r="26" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:85" s="112" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="110">
         <v>12664</v>
       </c>
@@ -21987,7 +21987,7 @@
       <c r="CE26" s="111"/>
       <c r="CG26" s="109"/>
     </row>
-    <row r="27" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:85" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -22047,7 +22047,7 @@
       <c r="CE27" s="2"/>
       <c r="CF27" s="1"/>
     </row>
-    <row r="28" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:85" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -22107,1019 +22107,1019 @@
       <c r="CE28" s="2"/>
       <c r="CF28" s="1"/>
     </row>
-    <row r="29" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:85" ht="15.75" customHeight="1">
       <c r="CF29" s="1"/>
     </row>
-    <row r="30" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:85" ht="15.75" customHeight="1">
       <c r="CF30" s="1"/>
     </row>
-    <row r="31" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:85" ht="15.75" customHeight="1">
       <c r="CF31" s="1"/>
     </row>
-    <row r="32" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:85" ht="15.75" customHeight="1">
       <c r="CF32" s="1"/>
     </row>
-    <row r="33" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="84:84" ht="15.75" customHeight="1">
       <c r="CF33" s="1"/>
     </row>
-    <row r="34" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="84:84" ht="15.75" customHeight="1">
       <c r="CF34" s="1"/>
     </row>
-    <row r="35" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="84:84" ht="15.75" customHeight="1">
       <c r="CF35" s="1"/>
     </row>
-    <row r="36" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="84:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="37" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="38" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="39" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="40" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="41" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="42" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="43" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="44" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="45" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="46" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="47" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="48" spans="84:84" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="146" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="147" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="148" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="149" spans="2:7" ht="15.75" customHeight="1">
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" ht="15.75" customHeight="1">
       <c r="B150" s="2"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" ht="15.75" customHeight="1">
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" ht="15.75" customHeight="1">
       <c r="B152" s="2"/>
       <c r="C152" s="21"/>
       <c r="D152" s="21"/>
     </row>
-    <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:7" ht="15.75" customHeight="1">
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" ht="15.75" customHeight="1">
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7" ht="15.75" customHeight="1">
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7" ht="15.75" customHeight="1">
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7" ht="15.75" customHeight="1">
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7" ht="15.75" customHeight="1">
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="160" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -23137,12 +23137,12 @@
   </sheetPr>
   <dimension ref="A1:CK1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BN293" sqref="BN293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.8984375" customWidth="1"/>
@@ -23228,7 +23228,7 @@
     <col min="84" max="84" width="73.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="36" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" s="36" customFormat="1" ht="31.2">
       <c r="A1" s="88" t="s">
         <v>36</v>
       </c>
@@ -23487,7 +23487,7 @@
       <c r="CJ1"/>
       <c r="CK1"/>
     </row>
-    <row r="2" spans="1:89" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:89" ht="16.2" thickBot="1">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:89" s="102" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="102" customFormat="1">
       <c r="A3" t="s">
         <v>275</v>
       </c>
@@ -23735,7 +23735,7 @@
       <c r="CJ3"/>
       <c r="CK3"/>
     </row>
-    <row r="4" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -23880,7 +23880,7 @@
       <c r="CJ4"/>
       <c r="CK4"/>
     </row>
-    <row r="5" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A5" t="s">
         <v>275</v>
       </c>
@@ -24025,7 +24025,7 @@
       <c r="CJ5"/>
       <c r="CK5"/>
     </row>
-    <row r="6" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A6" t="s">
         <v>275</v>
       </c>
@@ -24172,7 +24172,7 @@
       <c r="CJ6"/>
       <c r="CK6"/>
     </row>
-    <row r="7" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -24333,7 +24333,7 @@
       <c r="CJ7"/>
       <c r="CK7"/>
     </row>
-    <row r="8" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A8" t="s">
         <v>275</v>
       </c>
@@ -24488,7 +24488,7 @@
       <c r="CJ8"/>
       <c r="CK8"/>
     </row>
-    <row r="9" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A9" t="s">
         <v>275</v>
       </c>
@@ -24635,7 +24635,7 @@
       <c r="CJ9"/>
       <c r="CK9"/>
     </row>
-    <row r="10" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A10" t="s">
         <v>275</v>
       </c>
@@ -24782,7 +24782,7 @@
       <c r="CJ10"/>
       <c r="CK10"/>
     </row>
-    <row r="11" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -24929,7 +24929,7 @@
       <c r="CJ11"/>
       <c r="CK11"/>
     </row>
-    <row r="12" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A12" t="s">
         <v>275</v>
       </c>
@@ -25084,7 +25084,7 @@
       <c r="CJ12"/>
       <c r="CK12"/>
     </row>
-    <row r="13" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" s="103" customFormat="1" ht="15.6" customHeight="1">
       <c r="A13" t="s">
         <v>275</v>
       </c>
@@ -25239,7 +25239,7 @@
       <c r="CJ13"/>
       <c r="CK13"/>
     </row>
-    <row r="14" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1">
       <c r="A14" t="s">
         <v>275</v>
       </c>
@@ -25390,7 +25390,7 @@
       <c r="CJ14"/>
       <c r="CK14"/>
     </row>
-    <row r="15" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1">
       <c r="A15" t="s">
         <v>275</v>
       </c>
@@ -25543,7 +25543,7 @@
       <c r="CJ15"/>
       <c r="CK15"/>
     </row>
-    <row r="16" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -25696,7 +25696,7 @@
       <c r="CJ16"/>
       <c r="CK16"/>
     </row>
-    <row r="17" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1">
       <c r="A17" t="s">
         <v>275</v>
       </c>
@@ -25843,7 +25843,7 @@
       <c r="CJ17"/>
       <c r="CK17"/>
     </row>
-    <row r="18" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1">
       <c r="A18" t="s">
         <v>275</v>
       </c>
@@ -25990,7 +25990,7 @@
       <c r="CJ18"/>
       <c r="CK18"/>
     </row>
-    <row r="19" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" s="104" customFormat="1" ht="15.6" customHeight="1">
       <c r="A19" t="s">
         <v>275</v>
       </c>
@@ -26139,7 +26139,7 @@
       <c r="CJ19"/>
       <c r="CK19"/>
     </row>
-    <row r="20" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -26290,7 +26290,7 @@
       <c r="CJ20"/>
       <c r="CK20"/>
     </row>
-    <row r="21" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1">
       <c r="A21" t="s">
         <v>275</v>
       </c>
@@ -26441,7 +26441,7 @@
       <c r="CJ21"/>
       <c r="CK21"/>
     </row>
-    <row r="22" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1">
       <c r="A22" t="s">
         <v>275</v>
       </c>
@@ -26592,7 +26592,7 @@
       <c r="CJ22"/>
       <c r="CK22"/>
     </row>
-    <row r="23" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -26745,7 +26745,7 @@
       <c r="CJ23"/>
       <c r="CK23"/>
     </row>
-    <row r="24" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:89" s="93" customFormat="1" ht="15.6" customHeight="1">
       <c r="A24" t="s">
         <v>275</v>
       </c>
@@ -26894,7 +26894,7 @@
       <c r="CJ24"/>
       <c r="CK24"/>
     </row>
-    <row r="25" spans="1:89" s="105" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:89" s="105" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -27043,7 +27043,7 @@
       <c r="CJ25"/>
       <c r="CK25"/>
     </row>
-    <row r="26" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:89" ht="15.6" customHeight="1">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -27111,7 +27111,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:89" ht="15.6" customHeight="1">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="28" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:89" ht="15.6" customHeight="1">
       <c r="A28" t="s">
         <v>275</v>
       </c>
@@ -27244,7 +27244,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:89" ht="15.6" customHeight="1">
       <c r="A29" t="s">
         <v>275</v>
       </c>
@@ -27306,7 +27306,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:89" ht="15.6" customHeight="1">
       <c r="A30" t="s">
         <v>275</v>
       </c>
@@ -27374,7 +27374,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:89" ht="15.6" customHeight="1">
       <c r="A31" t="s">
         <v>275</v>
       </c>
@@ -27442,7 +27442,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:89" ht="15.6" customHeight="1">
       <c r="A32" t="s">
         <v>275</v>
       </c>
@@ -27510,7 +27510,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:80" ht="15.6" customHeight="1">
       <c r="A33" t="s">
         <v>275</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:80" ht="15.6" customHeight="1">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:80" ht="15.6" customHeight="1">
       <c r="A35" t="s">
         <v>275</v>
       </c>
@@ -27714,7 +27714,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:80" ht="15.6" customHeight="1">
       <c r="A36" t="s">
         <v>275</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:80" ht="15.6" customHeight="1">
       <c r="A37" t="s">
         <v>275</v>
       </c>
@@ -27847,7 +27847,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:80" ht="15.6" customHeight="1">
       <c r="A38" t="s">
         <v>275</v>
       </c>
@@ -27915,7 +27915,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:80" ht="15.6" customHeight="1">
       <c r="A39" t="s">
         <v>275</v>
       </c>
@@ -27983,7 +27983,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:80" ht="15.6" customHeight="1">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -28051,7 +28051,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="41" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:80" ht="15.6" customHeight="1">
       <c r="A41" t="s">
         <v>275</v>
       </c>
@@ -28119,7 +28119,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="42" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:80" ht="15.6" customHeight="1">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -28187,7 +28187,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="43" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:80" ht="15.6" customHeight="1">
       <c r="A43" t="s">
         <v>275</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="44" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:80" ht="15.6" customHeight="1">
       <c r="A44" t="s">
         <v>275</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:80" ht="15.6" customHeight="1">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -28391,7 +28391,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:80" ht="15.6" customHeight="1">
       <c r="A46" t="s">
         <v>275</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:80" ht="15.6" customHeight="1">
       <c r="A47" t="s">
         <v>275</v>
       </c>
@@ -28527,7 +28527,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:80" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:80" ht="15.6" customHeight="1">
       <c r="A48" t="s">
         <v>275</v>
       </c>
@@ -28586,7 +28586,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:89" ht="15.6" customHeight="1">
       <c r="A49" t="s">
         <v>275</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:89" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:89" ht="15.6" customHeight="1" thickBot="1">
       <c r="A50" t="s">
         <v>275</v>
       </c>
@@ -28704,7 +28704,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -28833,7 +28833,7 @@
       <c r="CJ51"/>
       <c r="CK51"/>
     </row>
-    <row r="52" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:89" ht="15.6" customHeight="1">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -28892,7 +28892,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="53" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:89" ht="15.6" customHeight="1">
       <c r="A53" t="s">
         <v>275</v>
       </c>
@@ -28951,7 +28951,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="54" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:89" ht="15.6" customHeight="1">
       <c r="A54" t="s">
         <v>275</v>
       </c>
@@ -29019,7 +29019,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="55" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:89" ht="15.6" customHeight="1">
       <c r="A55" t="s">
         <v>275</v>
       </c>
@@ -29093,7 +29093,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="56" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:89" ht="15.6" customHeight="1">
       <c r="A56" t="s">
         <v>275</v>
       </c>
@@ -29158,7 +29158,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="57" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:89" ht="15.6" customHeight="1">
       <c r="A57" t="s">
         <v>275</v>
       </c>
@@ -29223,7 +29223,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="58" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:89" ht="15.6" customHeight="1">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -29285,7 +29285,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:89" ht="15.6" customHeight="1">
       <c r="A59" t="s">
         <v>275</v>
       </c>
@@ -29353,7 +29353,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:89" ht="15.6" customHeight="1">
       <c r="A60" t="s">
         <v>275</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="61" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:89" ht="15.6" customHeight="1">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -29492,7 +29492,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="62" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:89" ht="15.6" customHeight="1">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -29560,7 +29560,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="63" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:89" ht="15.6" customHeight="1">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -29628,7 +29628,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="64" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:89" ht="15.6" customHeight="1">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:89" ht="15.6" customHeight="1">
       <c r="A65" t="s">
         <v>275</v>
       </c>
@@ -29755,7 +29755,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="66" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:89" ht="15.6" customHeight="1">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -29814,7 +29814,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="67" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:89" ht="15.6" customHeight="1">
       <c r="A67" t="s">
         <v>275</v>
       </c>
@@ -29873,7 +29873,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="68" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:89" ht="15.6" customHeight="1">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -29941,7 +29941,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="69" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:89" ht="15.6" customHeight="1">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -30000,7 +30000,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="70" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:89" ht="15.6" customHeight="1">
       <c r="A70" t="s">
         <v>275</v>
       </c>
@@ -30062,7 +30062,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="71" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:89" ht="15.6" customHeight="1">
       <c r="A71" t="s">
         <v>275</v>
       </c>
@@ -30121,7 +30121,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="72" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:89" ht="15.6" customHeight="1">
       <c r="A72" t="s">
         <v>275</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:89" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:89" ht="15.6" customHeight="1" thickBot="1">
       <c r="A73" t="s">
         <v>275</v>
       </c>
@@ -30248,7 +30248,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="74" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1">
       <c r="A74" t="s">
         <v>275</v>
       </c>
@@ -30393,7 +30393,7 @@
       <c r="CJ74"/>
       <c r="CK74"/>
     </row>
-    <row r="75" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:89" ht="15.6" customHeight="1">
       <c r="A75" t="s">
         <v>275</v>
       </c>
@@ -30473,7 +30473,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:89" ht="15.6" customHeight="1">
       <c r="A76" t="s">
         <v>275</v>
       </c>
@@ -30550,7 +30550,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:89" ht="15.6" customHeight="1">
       <c r="A77" t="s">
         <v>275</v>
       </c>
@@ -30618,7 +30618,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="78" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:89" ht="15.6" customHeight="1">
       <c r="A78" t="s">
         <v>275</v>
       </c>
@@ -30686,7 +30686,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="79" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:89" ht="15.6" customHeight="1">
       <c r="A79" t="s">
         <v>275</v>
       </c>
@@ -30754,7 +30754,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="80" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:89" ht="15.6" customHeight="1">
       <c r="A80" t="s">
         <v>275</v>
       </c>
@@ -30831,7 +30831,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="81" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:89" ht="15.6" customHeight="1">
       <c r="A81" t="s">
         <v>275</v>
       </c>
@@ -30905,7 +30905,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="82" spans="1:89" s="101" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:89" s="101" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A82" t="s">
         <v>275</v>
       </c>
@@ -31048,7 +31048,7 @@
       <c r="CJ82"/>
       <c r="CK82"/>
     </row>
-    <row r="83" spans="1:89" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:89" ht="15.6" customHeight="1" thickBot="1">
       <c r="A83" t="s">
         <v>275</v>
       </c>
@@ -31098,7 +31098,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="84" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A84" t="s">
         <v>275</v>
       </c>
@@ -31249,7 +31249,7 @@
       <c r="CJ84"/>
       <c r="CK84"/>
     </row>
-    <row r="85" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1">
       <c r="A85" t="s">
         <v>275</v>
       </c>
@@ -31410,7 +31410,7 @@
       <c r="CJ85"/>
       <c r="CK85"/>
     </row>
-    <row r="86" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:89" ht="15.6" customHeight="1">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -31505,7 +31505,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="87" spans="1:89" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:89" ht="15.6" customHeight="1" thickBot="1">
       <c r="A87" t="s">
         <v>275</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="88" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A88" t="s">
         <v>275</v>
       </c>
@@ -31752,7 +31752,7 @@
       <c r="CJ88"/>
       <c r="CK88"/>
     </row>
-    <row r="89" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A89" t="s">
         <v>275</v>
       </c>
@@ -31899,7 +31899,7 @@
       <c r="CJ89"/>
       <c r="CK89"/>
     </row>
-    <row r="90" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A90" t="s">
         <v>275</v>
       </c>
@@ -32024,7 +32024,7 @@
       <c r="CJ90"/>
       <c r="CK90"/>
     </row>
-    <row r="91" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -32149,7 +32149,7 @@
       <c r="CJ91"/>
       <c r="CK91"/>
     </row>
-    <row r="92" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1">
       <c r="A92" t="s">
         <v>275</v>
       </c>
@@ -32284,7 +32284,7 @@
       <c r="CJ92"/>
       <c r="CK92"/>
     </row>
-    <row r="93" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:89" ht="15.6" customHeight="1">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="94" spans="1:89" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:89" ht="15.6" customHeight="1" thickBot="1">
       <c r="A94" t="s">
         <v>275</v>
       </c>
@@ -32420,7 +32420,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="95" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A95" t="s">
         <v>275</v>
       </c>
@@ -32535,7 +32535,7 @@
       <c r="CJ95"/>
       <c r="CK95"/>
     </row>
-    <row r="96" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A96" t="s">
         <v>275</v>
       </c>
@@ -32682,7 +32682,7 @@
       <c r="CJ96"/>
       <c r="CK96"/>
     </row>
-    <row r="97" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A97" t="s">
         <v>275</v>
       </c>
@@ -32817,7 +32817,7 @@
       <c r="CJ97"/>
       <c r="CK97"/>
     </row>
-    <row r="98" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A98" t="s">
         <v>275</v>
       </c>
@@ -32946,7 +32946,7 @@
       <c r="CJ98"/>
       <c r="CK98"/>
     </row>
-    <row r="99" spans="1:89" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:89" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A99" t="s">
         <v>275</v>
       </c>
@@ -33069,7 +33069,7 @@
       <c r="CJ99"/>
       <c r="CK99"/>
     </row>
-    <row r="100" spans="1:89" s="115" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:89" s="115" customFormat="1" ht="15.6" customHeight="1">
       <c r="A100" t="s">
         <v>275</v>
       </c>
@@ -33220,7 +33220,7 @@
       <c r="CJ100"/>
       <c r="CK100"/>
     </row>
-    <row r="101" spans="1:89" s="115" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:89" s="115" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A101" t="s">
         <v>275</v>
       </c>
@@ -33345,7 +33345,7 @@
       <c r="CJ101"/>
       <c r="CK101"/>
     </row>
-    <row r="102" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A102" t="s">
         <v>275</v>
       </c>
@@ -33490,7 +33490,7 @@
       <c r="CJ102"/>
       <c r="CK102"/>
     </row>
-    <row r="103" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A103" t="s">
         <v>275</v>
       </c>
@@ -33635,7 +33635,7 @@
       <c r="CJ103"/>
       <c r="CK103"/>
     </row>
-    <row r="104" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1">
       <c r="A104" t="s">
         <v>275</v>
       </c>
@@ -33780,7 +33780,7 @@
       <c r="CJ104"/>
       <c r="CK104"/>
     </row>
-    <row r="105" spans="1:89" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:89" ht="15.6" customHeight="1" thickBot="1">
       <c r="A105" t="s">
         <v>275</v>
       </c>
@@ -33851,7 +33851,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A106" t="s">
         <v>275</v>
       </c>
@@ -34004,7 +34004,7 @@
       <c r="CJ106"/>
       <c r="CK106"/>
     </row>
-    <row r="107" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A107" t="s">
         <v>275</v>
       </c>
@@ -34165,7 +34165,7 @@
       <c r="CJ107"/>
       <c r="CK107"/>
     </row>
-    <row r="108" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A108" t="s">
         <v>275</v>
       </c>
@@ -34320,7 +34320,7 @@
       <c r="CJ108"/>
       <c r="CK108"/>
     </row>
-    <row r="109" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A109" t="s">
         <v>275</v>
       </c>
@@ -34485,7 +34485,7 @@
       <c r="CJ109"/>
       <c r="CK109"/>
     </row>
-    <row r="110" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1">
       <c r="A110" t="s">
         <v>275</v>
       </c>
@@ -34616,7 +34616,7 @@
       <c r="CJ110"/>
       <c r="CK110"/>
     </row>
-    <row r="111" spans="1:89" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:89" ht="15.6" customHeight="1" thickBot="1">
       <c r="A111" t="s">
         <v>275</v>
       </c>
@@ -34657,7 +34657,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="112" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A112" t="s">
         <v>275</v>
       </c>
@@ -34778,7 +34778,7 @@
       <c r="CJ112"/>
       <c r="CK112"/>
     </row>
-    <row r="113" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A113" t="s">
         <v>275</v>
       </c>
@@ -34905,7 +34905,7 @@
       <c r="CJ113"/>
       <c r="CK113"/>
     </row>
-    <row r="114" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A114" t="s">
         <v>275</v>
       </c>
@@ -35054,7 +35054,7 @@
       <c r="CJ114"/>
       <c r="CK114"/>
     </row>
-    <row r="115" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A115" t="s">
         <v>275</v>
       </c>
@@ -35199,7 +35199,7 @@
       <c r="CJ115"/>
       <c r="CK115"/>
     </row>
-    <row r="116" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1">
       <c r="A116" t="s">
         <v>275</v>
       </c>
@@ -35338,7 +35338,7 @@
       <c r="CJ116"/>
       <c r="CK116"/>
     </row>
-    <row r="117" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:89" ht="15.6" customHeight="1">
       <c r="A117" t="s">
         <v>275</v>
       </c>
@@ -35412,7 +35412,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="118" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:89" ht="15.6" customHeight="1">
       <c r="A118" t="s">
         <v>275</v>
       </c>
@@ -35486,7 +35486,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="119" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:89" ht="15.6" customHeight="1">
       <c r="A119" t="s">
         <v>275</v>
       </c>
@@ -35566,7 +35566,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="120" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:89" ht="15.6" customHeight="1">
       <c r="A120" t="s">
         <v>275</v>
       </c>
@@ -35637,7 +35637,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="121" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:89" ht="15.6" customHeight="1">
       <c r="A121" t="s">
         <v>275</v>
       </c>
@@ -35717,7 +35717,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="122" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:89" ht="15.6" customHeight="1">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -35791,7 +35791,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="123" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:89" ht="15.6" customHeight="1">
       <c r="A123" t="s">
         <v>275</v>
       </c>
@@ -35868,7 +35868,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="1:89" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:89" ht="15.6" customHeight="1" thickBot="1">
       <c r="A124" t="s">
         <v>275</v>
       </c>
@@ -35939,7 +35939,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="125" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A125" s="98" t="s">
         <v>275</v>
       </c>
@@ -36007,7 +36007,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="126" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A126" s="98" t="s">
         <v>275</v>
       </c>
@@ -36084,7 +36084,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="127" spans="1:89" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:89" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A127" s="108" t="s">
         <v>275</v>
       </c>
@@ -36143,7 +36143,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="128" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:89" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A128" s="98" t="s">
         <v>275</v>
       </c>
@@ -36253,7 +36253,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="129" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A129" s="98" t="s">
         <v>275</v>
       </c>
@@ -36306,7 +36306,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="130" spans="1:84" s="123" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:84" s="123" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A130" s="121" t="s">
         <v>275</v>
       </c>
@@ -36314,7 +36314,7 @@
         <v>6073</v>
       </c>
     </row>
-    <row r="131" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A131" s="108" t="s">
         <v>275</v>
       </c>
@@ -36349,7 +36349,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="132" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A132" s="98" t="s">
         <v>275</v>
       </c>
@@ -36411,7 +36411,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="133" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A133" s="108" t="s">
         <v>275</v>
       </c>
@@ -36449,7 +36449,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="134" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A134" s="108" t="s">
         <v>275</v>
       </c>
@@ -36505,7 +36505,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="135" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A135" s="98" t="s">
         <v>275</v>
       </c>
@@ -36624,7 +36624,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="136" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A136" s="98" t="s">
         <v>275</v>
       </c>
@@ -36704,7 +36704,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A137" s="98" t="s">
         <v>275</v>
       </c>
@@ -36778,7 +36778,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="138" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A138" s="98" t="s">
         <v>275</v>
       </c>
@@ -36876,7 +36876,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="139" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A139" s="98" t="s">
         <v>275</v>
       </c>
@@ -36969,7 +36969,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="140" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A140" s="98" t="s">
         <v>275</v>
       </c>
@@ -37073,7 +37073,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="141" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A141" s="98" t="s">
         <v>275</v>
       </c>
@@ -37117,7 +37117,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="142" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A142" s="98" t="s">
         <v>275</v>
       </c>
@@ -37179,7 +37179,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="143" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A143" s="98" t="s">
         <v>275</v>
       </c>
@@ -37268,7 +37268,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="144" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A144" s="98" t="s">
         <v>275</v>
       </c>
@@ -37366,7 +37366,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A145" s="98" t="s">
         <v>275</v>
       </c>
@@ -37425,7 +37425,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="146" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A146" t="s">
         <v>275</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="147" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A147" s="98" t="s">
         <v>275</v>
       </c>
@@ -37619,7 +37619,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="148" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A148" s="98" t="s">
         <v>275</v>
       </c>
@@ -37717,7 +37717,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="149" spans="1:84" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:84" ht="15.6" customHeight="1" thickBot="1">
       <c r="A149" s="100" t="s">
         <v>275</v>
       </c>
@@ -37803,7 +37803,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="150" spans="1:84" s="101" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:84" s="101" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A150" s="119" t="s">
         <v>275</v>
       </c>
@@ -37907,7 +37907,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="151" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A151" s="108" t="s">
         <v>275</v>
       </c>
@@ -37933,7 +37933,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="152" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A152" s="108" t="s">
         <v>275</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="153" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A153" s="108" t="s">
         <v>275</v>
       </c>
@@ -38042,7 +38042,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="154" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A154" s="98" t="s">
         <v>275</v>
       </c>
@@ -38116,7 +38116,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:84" s="109" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A155" s="108" t="s">
         <v>275</v>
       </c>
@@ -38208,7 +38208,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="156" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A156" s="98" t="s">
         <v>275</v>
       </c>
@@ -38285,7 +38285,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="157" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A157" s="108" t="s">
         <v>275</v>
       </c>
@@ -38368,7 +38368,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="158" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A158" s="98" t="s">
         <v>275</v>
       </c>
@@ -38463,7 +38463,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="159" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A159" s="98" t="s">
         <v>275</v>
       </c>
@@ -38573,7 +38573,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="160" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A160" s="98" t="s">
         <v>275</v>
       </c>
@@ -38629,7 +38629,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="161" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A161" s="98" t="s">
         <v>275</v>
       </c>
@@ -38692,7 +38692,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="162" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A162" s="98" t="s">
         <v>275</v>
       </c>
@@ -38748,7 +38748,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="163" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A163" s="98" t="s">
         <v>275</v>
       </c>
@@ -38810,7 +38810,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="164" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A164" s="98" t="s">
         <v>275</v>
       </c>
@@ -38900,7 +38900,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="165" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A165" s="98" t="s">
         <v>275</v>
       </c>
@@ -38971,7 +38971,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="166" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:84" s="99" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A166" s="98" t="s">
         <v>275</v>
       </c>
@@ -39060,7 +39060,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="167" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A167" s="98" t="s">
         <v>275</v>
       </c>
@@ -39155,7 +39155,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="168" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A168" s="98" t="s">
         <v>275</v>
       </c>
@@ -39227,7 +39227,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="169" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A169" s="98" t="s">
         <v>275</v>
       </c>
@@ -39304,7 +39304,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="170" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A170" s="98" t="s">
         <v>275</v>
       </c>
@@ -39396,7 +39396,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="171" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A171" s="98" t="s">
         <v>275</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="172" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A172" s="98" t="s">
         <v>275</v>
       </c>
@@ -39562,7 +39562,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="173" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A173" s="98" t="s">
         <v>275</v>
       </c>
@@ -39666,7 +39666,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="174" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A174" s="98" t="s">
         <v>275</v>
       </c>
@@ -39788,7 +39788,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="175" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A175" s="98" t="s">
         <v>275</v>
       </c>
@@ -39887,7 +39887,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="176" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A176" s="98" t="s">
         <v>275</v>
       </c>
@@ -39940,7 +39940,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="177" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:84" ht="16.2" thickBot="1">
       <c r="A177" s="100" t="s">
         <v>275</v>
       </c>
@@ -39987,7 +39987,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="178" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1">
       <c r="A178" s="108" t="s">
         <v>275</v>
       </c>
@@ -40067,7 +40067,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="179" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A179" s="98" t="s">
         <v>275</v>
       </c>
@@ -40174,7 +40174,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="180" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A180" s="98" t="s">
         <v>275</v>
       </c>
@@ -40263,7 +40263,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="181" spans="1:84" s="99" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:84" s="99" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A181" s="98" t="s">
         <v>275</v>
       </c>
@@ -40349,7 +40349,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="182" spans="1:84" s="99" customFormat="1" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:84" s="99" customFormat="1" ht="125.4" thickBot="1">
       <c r="A182" s="98" t="s">
         <v>275</v>
       </c>
@@ -40426,7 +40426,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="183" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A183" s="98" t="s">
         <v>275</v>
       </c>
@@ -40494,7 +40494,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="184" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1">
       <c r="A184" s="108" t="s">
         <v>275</v>
       </c>
@@ -40559,7 +40559,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="185" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A185" s="98" t="s">
         <v>275</v>
       </c>
@@ -40657,7 +40657,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="186" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A186" s="98" t="s">
         <v>275</v>
       </c>
@@ -40722,7 +40722,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="187" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:84" ht="16.2" thickBot="1">
       <c r="A187" s="100" t="s">
         <v>275</v>
       </c>
@@ -40790,7 +40790,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="188" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:84" ht="16.2" thickBot="1">
       <c r="A188" s="100" t="s">
         <v>275</v>
       </c>
@@ -40852,7 +40852,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="189" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:84" ht="16.2" thickBot="1">
       <c r="A189" s="100" t="s">
         <v>275</v>
       </c>
@@ -40917,7 +40917,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="190" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:84" ht="16.2" thickBot="1">
       <c r="A190" s="100" t="s">
         <v>275</v>
       </c>
@@ -40973,7 +40973,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="191" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A191" s="98" t="s">
         <v>275</v>
       </c>
@@ -41026,7 +41026,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="192" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A192" s="98" t="s">
         <v>275</v>
       </c>
@@ -41139,7 +41139,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="193" spans="1:84" s="99" customFormat="1" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:84" s="99" customFormat="1" ht="10.8" customHeight="1" thickBot="1">
       <c r="A193" s="98" t="s">
         <v>275</v>
       </c>
@@ -41210,7 +41210,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="194" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1">
       <c r="A194" s="98" t="s">
         <v>275</v>
       </c>
@@ -41308,7 +41308,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="195" spans="1:84" s="99" customFormat="1" ht="49.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:84" s="99" customFormat="1" ht="49.8" hidden="1" customHeight="1" thickBot="1">
       <c r="A195" s="98" t="s">
         <v>275</v>
       </c>
@@ -41404,7 +41404,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="196" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1">
       <c r="A196" s="98" t="s">
         <v>275</v>
       </c>
@@ -41517,7 +41517,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="197" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1">
       <c r="A197" s="98" t="s">
         <v>275</v>
       </c>
@@ -41597,7 +41597,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="198" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1">
       <c r="A198" s="98" t="s">
         <v>275</v>
       </c>
@@ -41689,7 +41689,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="199" spans="1:84" s="99" customFormat="1" ht="52.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:84" s="99" customFormat="1" ht="52.8" hidden="1" customHeight="1" thickBot="1">
       <c r="A199" s="98" t="s">
         <v>275</v>
       </c>
@@ -41793,7 +41793,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="200" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1">
       <c r="A200" s="98" t="s">
         <v>275</v>
       </c>
@@ -41867,7 +41867,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="201" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:84" s="99" customFormat="1" ht="16.2" hidden="1" thickBot="1">
       <c r="A201" s="98" t="s">
         <v>275</v>
       </c>
@@ -41953,7 +41953,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A202" s="98" t="s">
         <v>275</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="203" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A203" s="98" t="s">
         <v>275</v>
       </c>
@@ -42149,7 +42149,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="204" spans="1:84" s="99" customFormat="1" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:84" s="99" customFormat="1" ht="141" thickBot="1">
       <c r="A204" s="98" t="s">
         <v>275</v>
       </c>
@@ -42256,7 +42256,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="205" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A205" s="98" t="s">
         <v>275</v>
       </c>
@@ -42309,7 +42309,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="206" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:84" ht="16.2" thickBot="1">
       <c r="A206" s="100" t="s">
         <v>275</v>
       </c>
@@ -42362,7 +42362,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="207" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A207" s="98" t="s">
         <v>275</v>
       </c>
@@ -42433,7 +42433,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="208" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1">
       <c r="A208" s="108" t="s">
         <v>275</v>
       </c>
@@ -42507,7 +42507,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="209" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1">
       <c r="A209" s="108" t="s">
         <v>275</v>
       </c>
@@ -42542,7 +42542,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="210" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A210" s="98" t="s">
         <v>275</v>
       </c>
@@ -42634,7 +42634,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="211" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A211" s="98" t="s">
         <v>275</v>
       </c>
@@ -42738,7 +42738,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="212" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A212" s="98" t="s">
         <v>275</v>
       </c>
@@ -42833,7 +42833,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="213" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A213" s="98" t="s">
         <v>275</v>
       </c>
@@ -42943,7 +42943,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="214" spans="1:84" s="99" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:84" s="99" customFormat="1" ht="31.8" thickBot="1">
       <c r="A214" s="98" t="s">
         <v>275</v>
       </c>
@@ -43054,7 +43054,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="215" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A215" s="98" t="s">
         <v>275</v>
       </c>
@@ -43145,7 +43145,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="216" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A216" s="98" t="s">
         <v>275</v>
       </c>
@@ -43216,7 +43216,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="217" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:84" ht="16.2" thickBot="1">
       <c r="A217" s="100" t="s">
         <v>275</v>
       </c>
@@ -43305,7 +43305,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="218" spans="1:84" s="99" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:84" s="99" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A218" s="98" t="s">
         <v>275</v>
       </c>
@@ -43349,7 +43349,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="219" spans="1:84" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:84" ht="41.4" customHeight="1" thickBot="1">
       <c r="A219" s="100" t="s">
         <v>275</v>
       </c>
@@ -43393,7 +43393,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="220" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A220" s="98" t="s">
         <v>275</v>
       </c>
@@ -43506,7 +43506,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="221" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A221" s="98" t="s">
         <v>275</v>
       </c>
@@ -43607,7 +43607,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="222" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A222" s="98" t="s">
         <v>275</v>
       </c>
@@ -43687,7 +43687,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="223" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A223" s="98" t="s">
         <v>275</v>
       </c>
@@ -43740,7 +43740,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="224" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A224" s="98" t="s">
         <v>275</v>
       </c>
@@ -43841,7 +43841,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="225" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A225" s="143" t="s">
         <v>275</v>
       </c>
@@ -43918,7 +43918,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="226" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A226" s="98" t="s">
         <v>275</v>
       </c>
@@ -44034,7 +44034,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="227" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A227" s="108" t="s">
         <v>275</v>
       </c>
@@ -44054,7 +44054,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="228" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A228" t="s">
         <v>275</v>
       </c>
@@ -44113,7 +44113,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="229" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A229" s="98" t="s">
         <v>275</v>
       </c>
@@ -44199,7 +44199,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="230" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A230" s="98" t="s">
         <v>275</v>
       </c>
@@ -44273,7 +44273,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="231" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A231" s="98" t="s">
         <v>275</v>
       </c>
@@ -44320,7 +44320,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="232" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A232" s="98" t="s">
         <v>275</v>
       </c>
@@ -44397,7 +44397,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="233" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:84" ht="16.2" thickBot="1">
       <c r="A233" s="100" t="s">
         <v>275</v>
       </c>
@@ -44471,7 +44471,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="234" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A234" s="98" t="s">
         <v>275</v>
       </c>
@@ -44527,7 +44527,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="235" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A235" s="98" t="s">
         <v>275</v>
       </c>
@@ -44649,7 +44649,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="236" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A236" s="98" t="s">
         <v>275</v>
       </c>
@@ -44684,7 +44684,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="237" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:84" ht="16.2" thickBot="1">
       <c r="A237" s="98" t="s">
         <v>275</v>
       </c>
@@ -44716,7 +44716,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="238" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A238" s="98" t="s">
         <v>275</v>
       </c>
@@ -44775,7 +44775,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="239" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:84" ht="16.2" thickBot="1">
       <c r="A239" s="100" t="s">
         <v>275</v>
       </c>
@@ -44855,7 +44855,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="240" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A240" s="98" t="s">
         <v>275</v>
       </c>
@@ -44953,7 +44953,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="241" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A241" s="98" t="s">
         <v>275</v>
       </c>
@@ -45027,7 +45027,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="242" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A242" s="98" t="s">
         <v>275</v>
       </c>
@@ -45125,7 +45125,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="243" spans="1:84" s="99" customFormat="1" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:84" s="99" customFormat="1" ht="40.799999999999997" customHeight="1" thickBot="1">
       <c r="A243" s="98" t="s">
         <v>275</v>
       </c>
@@ -45211,7 +45211,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="244" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A244" s="98" t="s">
         <v>275</v>
       </c>
@@ -45318,7 +45318,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="245" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A245" s="98" t="s">
         <v>275</v>
       </c>
@@ -45422,7 +45422,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="246" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A246" s="98" t="s">
         <v>275</v>
       </c>
@@ -45502,7 +45502,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="247" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A247" s="98" t="s">
         <v>275</v>
       </c>
@@ -45588,7 +45588,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="248" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A248" s="98" t="s">
         <v>275</v>
       </c>
@@ -45701,7 +45701,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="249" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A249" s="98" t="s">
         <v>275</v>
       </c>
@@ -45814,7 +45814,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="250" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A250" s="98" t="s">
         <v>275</v>
       </c>
@@ -45870,7 +45870,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="251" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1">
       <c r="A251" s="108" t="s">
         <v>275</v>
       </c>
@@ -45965,7 +45965,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="252" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A252" s="98" t="s">
         <v>275</v>
       </c>
@@ -46060,7 +46060,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="253" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:84" ht="16.2" thickBot="1">
       <c r="A253" s="100" t="s">
         <v>275</v>
       </c>
@@ -46170,7 +46170,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="254" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:84" ht="16.2" thickBot="1">
       <c r="A254" s="100" t="s">
         <v>275</v>
       </c>
@@ -46271,7 +46271,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="255" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A255" s="98" t="s">
         <v>275</v>
       </c>
@@ -46390,7 +46390,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="256" spans="1:84" s="99" customFormat="1" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:84" s="99" customFormat="1" ht="66.599999999999994" customHeight="1" thickBot="1">
       <c r="A256" s="98" t="s">
         <v>275</v>
       </c>
@@ -46506,7 +46506,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="257" spans="1:84" s="99" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:84" s="99" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
       <c r="A257" s="98" t="s">
         <v>275</v>
       </c>
@@ -46583,7 +46583,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="258" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A258" s="98" t="s">
         <v>275</v>
       </c>
@@ -46696,7 +46696,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="259" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A259" s="98" t="s">
         <v>275</v>
       </c>
@@ -46800,7 +46800,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="260" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A260" s="98" t="s">
         <v>275</v>
       </c>
@@ -46919,7 +46919,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="261" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:84" ht="16.2" thickBot="1">
       <c r="A261" s="100" t="s">
         <v>275</v>
       </c>
@@ -47017,7 +47017,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="262" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A262" s="98" t="s">
         <v>275</v>
       </c>
@@ -47118,7 +47118,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="263" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A263" s="98" t="s">
         <v>275</v>
       </c>
@@ -47231,7 +47231,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="264" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A264" s="98" t="s">
         <v>275</v>
       </c>
@@ -47305,7 +47305,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="265" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A265" s="98" t="s">
         <v>275</v>
       </c>
@@ -47430,7 +47430,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="266" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A266" s="98" t="s">
         <v>275</v>
       </c>
@@ -47477,7 +47477,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A267" s="98" t="s">
         <v>275</v>
       </c>
@@ -47581,7 +47581,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="268" spans="1:84" s="99" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:84" s="99" customFormat="1" ht="30.6" customHeight="1" thickBot="1">
       <c r="A268" s="98" t="s">
         <v>275</v>
       </c>
@@ -47694,7 +47694,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="269" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:84" ht="16.2" thickBot="1">
       <c r="A269" s="100" t="s">
         <v>275</v>
       </c>
@@ -47778,7 +47778,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="270" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A270" s="98" t="s">
         <v>275</v>
       </c>
@@ -47848,7 +47848,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="271" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A271" s="98" t="s">
         <v>275</v>
       </c>
@@ -47928,7 +47928,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="272" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:84" ht="16.2" thickBot="1">
       <c r="A272" s="100" t="s">
         <v>275</v>
       </c>
@@ -47999,7 +47999,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="273" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A273" s="98" t="s">
         <v>275</v>
       </c>
@@ -48103,7 +48103,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="274" spans="1:84" s="99" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:84" s="99" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
       <c r="A274" s="98" t="s">
         <v>275</v>
       </c>
@@ -48240,7 +48240,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="275" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A275" s="98" t="s">
         <v>275</v>
       </c>
@@ -48278,7 +48278,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="276" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:84" ht="16.2" thickBot="1">
       <c r="A276" s="100" t="s">
         <v>275</v>
       </c>
@@ -48319,7 +48319,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="277" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:84" ht="16.2" thickBot="1">
       <c r="A277" s="100" t="s">
         <v>275</v>
       </c>
@@ -48360,7 +48360,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="278" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:84" ht="16.2" thickBot="1">
       <c r="A278" s="100" t="s">
         <v>275</v>
       </c>
@@ -48398,7 +48398,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="279" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:84" ht="16.2" thickBot="1">
       <c r="A279" s="100" t="s">
         <v>275</v>
       </c>
@@ -48439,7 +48439,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="280" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A280" s="98" t="s">
         <v>275</v>
       </c>
@@ -48553,7 +48553,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="281" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A281" s="98" t="s">
         <v>275</v>
       </c>
@@ -48634,7 +48634,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="282" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:84" s="109" customFormat="1" ht="16.2" thickBot="1">
       <c r="A282" s="108" t="s">
         <v>275</v>
       </c>
@@ -48669,7 +48669,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="283" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A283" s="98" t="s">
         <v>275</v>
       </c>
@@ -48761,7 +48761,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="284" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A284" s="98" t="s">
         <v>275</v>
       </c>
@@ -48817,7 +48817,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="285" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A285" s="98" t="s">
         <v>275</v>
       </c>
@@ -48846,7 +48846,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="286" spans="1:84" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:84" ht="16.2" thickBot="1">
       <c r="A286" s="100" t="s">
         <v>275</v>
       </c>
@@ -48875,7 +48875,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="287" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A287" s="98" t="s">
         <v>275</v>
       </c>
@@ -48967,7 +48967,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="288" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:84" s="99" customFormat="1" ht="16.2" thickBot="1">
       <c r="A288" s="98" t="s">
         <v>275</v>
       </c>
@@ -49090,7 +49090,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="289" spans="1:78" s="109" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:78" s="109" customFormat="1" ht="16.2" thickBot="1">
       <c r="A289" s="108" t="s">
         <v>275</v>
       </c>
@@ -49188,18 +49188,18 @@
         <v>406</v>
       </c>
     </row>
-    <row r="290" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:78">
       <c r="A290" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="291" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:78">
       <c r="A291" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="1048573" spans="1:75" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1048574" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1048573" spans="1:75" ht="16.2" thickBot="1"/>
+    <row r="1048574" spans="1:75">
       <c r="A1048574" s="98" t="s">
         <v>275</v>
       </c>
